--- a/demo_b/data/weixin.xlsx
+++ b/demo_b/data/weixin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\all_test\api_test\demo_b\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD1A969-8627-4D88-99D6-716A3FD66F37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A487A-618C-426C-93D7-98463A04D8BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Id(用例编号)</t>
   </si>
@@ -64,223 +64,144 @@
     <t>adc</t>
   </si>
   <si>
+    <t>{'access_token': '#ERROR#', 'userid': '', 'name': 'length=1', 'department': '', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=64', 'name': '', 'department': 'this&lt;100', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': 'length=1', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '1&lt;length&lt;64', 'name': '#ERROR#', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': 'length&gt;64', 'name': 'length=64', 'department': 'this&lt;100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '', 'name': '1&lt;length&lt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': 'length=1', 'name': '', 'department': '', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': '#ERROR#', 'name': '', 'department': 'this&gt;100', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '1&lt;length&lt;64', 'name': 'length=64', 'department': '', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': 'length=64', 'name': '#ERROR#', 'department': '', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '', 'name': 'length&gt;64', 'department': 'this&lt;100', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length&gt;64', 'name': '', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '#ERROR#', 'name': 'length=1', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': '', 'name': '#ERROR#', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': 'length&gt;64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=64', 'name': 'length&gt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': '1&lt;length&lt;64', 'department': '', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=1', 'name': 'length=64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length&gt;64', 'name': 'length=1', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=1', 'name': '1&lt;length&lt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度等于1, name错误, department值小于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token错误, userid空, name长度等于1, department空, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度等于64, name空, department值小于100, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token错误, userid长度大于1小于64, name长度等于1, department值大于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度大于1小于64, name错误, department值等于100, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token错误, userid长度大于64, name长度等于64, department值小于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token正确, userid空, name长度大于1小于64, department值大于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token错误, userid长度等于1, name空, department空, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token错误, userid错误, name空, department值大于100, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度大于1小于64, name长度等于64, department空, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token错误, userid长度等于64, name错误, department空, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token正确, userid空, name长度大于64, department值小于100, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度大于64, name空, department值等于100, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token正确, userid错误, name长度等于1, department值等于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token错误, userid错误, name长度等于64, department值等于100, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token错误, userid空, name错误, department值大于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token错误, userid长度大于1小于64, name长度大于64, department值等于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度等于64, name长度大于64, department值大于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token错误, userid长度大于1小于64, name长度大于1小于64, department空, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度等于1, name长度等于64, department值等于100, mobile错误</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度大于64, name长度等于1, department值等于100, mobile正确</t>
+  </si>
+  <si>
+    <t>access_token正确, userid长度等于1, name长度大于1小于64, department值大于100, mobile错误</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
     <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=1', 'name': '#ERROR#', 'department': 'this&lt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': '', 'name': 'length=1', 'department': '', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length=64', 'name': 'length=1', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=64', 'name': '', 'department': 'this&lt;100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': 'length=1', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': '', 'name': '', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '1&lt;length&lt;64', 'name': '#ERROR#', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': '#ERROR#', 'name': '#ERROR#', 'department': '', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': 'length&gt;64', 'name': 'length=64', 'department': 'this&lt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '', 'name': '1&lt;length&lt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': 'length=1', 'name': '', 'department': '', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length=1', 'name': 'length=1', 'department': 'this&lt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': '#ERROR#', 'name': '', 'department': 'this&gt;100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '1&lt;length&lt;64', 'name': 'length=64', 'department': '', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': 'length=64', 'name': '#ERROR#', 'department': '', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length=64', 'name': 'length=64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '', 'name': 'length&gt;64', 'department': 'this&lt;100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length&gt;64', 'name': '', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length&gt;64', 'name': 'length&gt;64', 'department': '', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '#ERROR#', 'name': 'length=1', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': '1&lt;length&lt;64', 'name': '', 'department': 'this&lt;100', 'mobile': '#MOBILE#'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{'access_token': '#ERROR#', 'userid': '#ERROR#', 'name': 'length=64', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': '', 'name': '#ERROR#', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': 'length&gt;64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=64', 'name': 'length&gt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': '1&lt;length&lt;64', 'department': '', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=1', 'name': 'length=64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length=1', 'name': 'length&gt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': '#ERROR#', 'name': '1&lt;length&lt;64', 'department': 'this&lt;100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': '', 'name': 'length=64', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length=64', 'name': '1&lt;length&lt;64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length&gt;64', 'name': 'length=1', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=1', 'name': '1&lt;length&lt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length&gt;64', 'name': '1&lt;length&lt;64', 'department': 'this&lt;100', 'mobile': '#MOBILE#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': '#ERROR#', 'name': 'length&gt;64', 'department': '', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度大于64, name错误, department值大于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度等于1, name错误, department值小于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token错误, userid空, name长度等于1, department空, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度等于64, name长度等于1, department值等于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度等于64, name空, department值小于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token错误, userid长度大于1小于64, name长度等于1, department值大于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token空, userid空, name空, department值等于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度大于1小于64, name错误, department值等于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token空, userid错误, name错误, department空, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token错误, userid长度大于64, name长度等于64, department值小于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token正确, userid空, name长度大于1小于64, department值大于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token错误, userid长度等于1, name空, department空, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度等于1, name长度等于1, department值小于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token错误, userid错误, name空, department值大于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度大于1小于64, name长度等于64, department空, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token错误, userid长度等于64, name错误, department空, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度等于64, name长度等于64, department值大于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token正确, userid空, name长度大于64, department值小于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度大于64, name空, department值等于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度大于64, name长度大于64, department空, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token正确, userid错误, name长度等于1, department值等于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度大于1小于64, name空, department值小于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token错误, userid错误, name长度等于64, department值等于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token错误, userid空, name错误, department值大于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token错误, userid长度大于1小于64, name长度大于64, department值等于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度等于64, name长度大于64, department值大于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token错误, userid长度大于1小于64, name长度大于1小于64, department空, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度等于1, name长度等于64, department值等于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度等于1, name长度大于64, department值大于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token空, userid错误, name长度大于1小于64, department值小于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token空, userid空, name长度等于64, department值等于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度等于64, name长度大于1小于64, department值等于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度大于64, name长度等于1, department值等于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token正确, userid长度等于1, name长度大于1小于64, department值大于100, mobile错误</t>
-  </si>
-  <si>
-    <t>access_token空, userid长度大于64, name长度大于1小于64, department值小于100, mobile正确</t>
-  </si>
-  <si>
-    <t>access_token空, userid错误, name长度大于64, department空, mobile错误</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>{'access_token': '', 'userid': 'length&gt;64', 'name': '#ERROR#', 'department': 'this&gt;100', 'mobile': '#MOBILE#'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params(请求数据)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -663,30 +584,30 @@
     </row>
     <row r="2" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -697,13 +618,13 @@
     </row>
     <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -714,13 +635,13 @@
     </row>
     <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -731,13 +652,13 @@
     </row>
     <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -748,13 +669,13 @@
     </row>
     <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -765,13 +686,13 @@
     </row>
     <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -782,13 +703,13 @@
     </row>
     <row r="9" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -799,13 +720,13 @@
     </row>
     <row r="10" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -816,13 +737,13 @@
     </row>
     <row r="11" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
@@ -833,13 +754,13 @@
     </row>
     <row r="12" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -850,13 +771,13 @@
     </row>
     <row r="13" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
@@ -867,13 +788,13 @@
     </row>
     <row r="14" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
@@ -884,13 +805,13 @@
     </row>
     <row r="15" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
@@ -901,386 +822,147 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
         <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3:D37" r:id="rId2" display="https://qyapi.weixin.qq.com/cgi-bin/user/get" xr:uid="{5108CB85-6CBA-44BF-BF45-0F097C1703A0}"/>
+    <hyperlink ref="D2:D23" r:id="rId1" display="https://qyapi.weixin.qq.com/cgi-bin/user/get" xr:uid="{5108CB85-6CBA-44BF-BF45-0F097C1703A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/demo_b/data/weixin.xlsx
+++ b/demo_b/data/weixin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZZZZZZ\all_test\api_test\demo_b\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A487A-618C-426C-93D7-98463A04D8BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E190E-AF0C-434D-868A-1913A66FB868}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
   <si>
     <t>Id(用例编号)</t>
   </si>
@@ -100,15 +100,9 @@
     <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length&gt;64', 'name': '', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
   </si>
   <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '#ERROR#', 'name': 'length=1', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
     <t>{'access_token': '#ERROR#', 'userid': '', 'name': '#ERROR#', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
   </si>
   <si>
-    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': 'length&gt;64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
     <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=64', 'name': 'length&gt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
   </si>
   <si>
     <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=1', 'name': 'length=64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
-  </si>
-  <si>
-    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length&gt;64', 'name': 'length=1', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
   </si>
   <si>
     <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length=1', 'name': '1&lt;length&lt;64', 'department': 'this&gt;100', 'mobile': '#ERROR#'}</t>
@@ -202,6 +193,45 @@
   </si>
   <si>
     <t>Params(请求数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'errcode': 41001}</t>
+  </si>
+  <si>
+    <t>{'errcode': 41001}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>access_token正确, userid长度大于1小于64, name长度大于1小于64, department值小于100, mobile正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'length&gt;64', 'name': 'length=1', 'department': 'this=100', 'mobile': '#MOBILE#'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expectation(期望结果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'access_token': '#ERROR#', 'userid': '1&lt;length&lt;64', 'name': 'length&gt;64', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qyapi.weixin.qq.com/cgi-bin/user/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'errcode': 60112}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': '#ERROR#', 'name': 'length=1', 'department': 'this=100', 'mobile': '#ERROR#'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'access_token': '#ACCESS_TOKEN#', 'userid': 'wangwu', 'name': 'wangwu', 'department': '1', 'mobile': '#MOBILE#'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +252,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,10 +280,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,9 +301,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,16 +585,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="84.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.109375" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" customWidth="1"/>
     <col min="5" max="5" width="115.44140625" customWidth="1"/>
@@ -573,10 +616,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -587,16 +630,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -604,16 +650,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,16 +670,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,16 +690,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -655,16 +710,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,16 +730,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,16 +750,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,16 +770,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,16 +790,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,16 +810,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,16 +830,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,16 +850,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,16 +870,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -808,16 +890,19 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,144 +910,190 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2:D23" r:id="rId1" display="https://qyapi.weixin.qq.com/cgi-bin/user/get" xr:uid="{5108CB85-6CBA-44BF-BF45-0F097C1703A0}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C111C5FD-67A7-4B79-B3E4-00B364008A3A}"/>
+    <hyperlink ref="D3:D24" r:id="rId3" display="https://qyapi.weixin.qq.com/cgi-bin/user/get" xr:uid="{90D7B582-3C6E-499D-B25B-85C7D74F2175}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
